--- a/public/cn2021_2022/2022 10 digit codes Chapter 32.xlsx
+++ b/public/cn2021_2022/2022 10 digit codes Chapter 32.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hmrc-my.sharepoint.com/personal/david_harris2_hmrc_gov_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{EAB6DF3A-6B2F-47D2-8444-441112E75CA2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{13F17A82-FC82-494C-BC8E-5A957515A244}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{57A3CC42-9B28-4FBE-90DC-B990EAC7BC33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{039ACB6D-00E4-4A94-8AC6-E0A5DC47BF0D}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3615" yWindow="3615" windowWidth="15390" windowHeight="9532" xr2:uid="{EFD7FB19-5A7E-4B01-91FE-A82DABDE9626}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{AD4DDB51-1732-4CCD-BE0A-9E806A4F42C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>10 Digit Code Introduced from 1 January 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>10 Digit Codes Introduced from 1 January 2022</t>
   </si>
   <si>
     <t>Code Description</t>
   </si>
   <si>
-    <t xml:space="preserve">3204 1800 00 </t>
+    <t xml:space="preserve">                                3206 4970 50</t>
+  </si>
+  <si>
+    <t>Concentrated mixture of pigments (masterbatch) in the form of pellets containing by weight:
+-50 % or more but not more than 70 % of polyamide-6.6 (CAS RN 32131-17-2),
+-15 % or more but not more than 20 % of iron powder (CAS RN 7439-89-6),
+-5 % or more but not more than 15 % of barium sulphate (CAS RN 7727-43-7), and
+-5 % or more but not more than 10 % of blue pigment, consisting of a mixture of Titanium dioxide (CAS RN 13463-67-7) and Copper(II) phtalocyanine(CAS RN 147-14-8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                3204 1800 00</t>
   </si>
   <si>
     <t>Carotenoid colouring matters and preparations based thereon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Umbrella Subheading 2903 4970</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -100,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,42 +124,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{1CDBF07F-83DD-42AB-B0BD-C0B3303CF33B}"/>
-    <cellStyle name="Normal 15" xfId="2" xr:uid="{F6355AFD-0CF7-457D-AAB2-D4E36E9C071E}"/>
-    <cellStyle name="Normal 15 4" xfId="3" xr:uid="{F193A399-CD97-4E8A-BD2B-AB852078F754}"/>
-    <cellStyle name="Normal 2 4" xfId="4" xr:uid="{AFF5A12F-6887-4F81-892B-9EF465991859}"/>
-    <cellStyle name="Normal 5 2" xfId="5" xr:uid="{B2D6F2E6-1AC4-487B-A297-65A76094B52A}"/>
-    <cellStyle name="Normal 5 4 10 2" xfId="6" xr:uid="{CBC2788A-F5DC-4660-A43B-814D4DC0A2EE}"/>
-    <cellStyle name="Normal 5 4 10 2 7" xfId="7" xr:uid="{3EADF82D-D6EA-450A-9545-14BAB9E85CFD}"/>
-    <cellStyle name="Normal 5 4 3" xfId="8" xr:uid="{06D5FFB4-2D7D-4279-8D92-C8F6A2086402}"/>
-    <cellStyle name="Normal 5 4 3 2" xfId="9" xr:uid="{1F2FFEB2-59AD-4EB8-9DB5-F5035DF6B5ED}"/>
-    <cellStyle name="Normal 5 4 3 8" xfId="10" xr:uid="{7B5BF7A6-C843-4B06-A2F8-656D5A5CE237}"/>
+    <cellStyle name="Normal 10 2" xfId="1" xr:uid="{EE767A29-09D7-4A01-B7E6-72F6D2D2CA6E}"/>
+    <cellStyle name="Normal 15" xfId="2" xr:uid="{E3760A32-CE49-4C4A-A8DE-0CD3151F75B9}"/>
+    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{9C914E5D-ECB7-476C-A6C7-C6EB869B008F}"/>
+    <cellStyle name="Normal 5 2" xfId="4" xr:uid="{F31AB04A-F15F-469D-AC55-6ABAEF887253}"/>
+    <cellStyle name="Normal 5 4 10 2" xfId="5" xr:uid="{EF58D456-7C5B-4F7B-824F-971646457519}"/>
+    <cellStyle name="Normal 5 4 3" xfId="6" xr:uid="{1771B5BF-E192-41AB-B4E2-D4B1CFD44E3E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B604FD1E-2FCB-408E-A380-BD0ABF368139}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00057D7A-E016-49C8-9D78-CA13081250F4}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -476,10 +494,26 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="69.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
